--- a/template/tableName-field.xlsx
+++ b/template/tableName-field.xlsx
@@ -5,75 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\buildFile\code_new\buildFile\template\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\buildFile\code_new\buildFile\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17445" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>User</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>表主键</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="1"/>
-          </rPr>
-          <t>表名注释</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>选择操作类型</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
-  <si>
-    <t>表名</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>主键</t>
   </si>
@@ -81,7 +27,7 @@
     <t>名称</t>
   </si>
   <si>
-    <t>XML标记</t>
+    <t>字段名</t>
   </si>
   <si>
     <t>类型</t>
@@ -93,6 +39,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -102,7 +51,37 @@
     <t>N15.2</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>杨文培</t>
+  </si>
+  <si>
+    <t>操作人：</t>
+  </si>
+  <si>
+    <t>操作类型：</t>
+  </si>
+  <si>
+    <t>default sysdate</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>表名称：</t>
+  </si>
+  <si>
+    <t>AMS_tableName</t>
+  </si>
+  <si>
+    <t>修改日期：</t>
+  </si>
+  <si>
+    <t>版本号：</t>
+  </si>
+  <si>
+    <t>表名注释：</t>
+  </si>
+  <si>
+    <t>扩展属性</t>
   </si>
   <si>
     <r>
@@ -140,13 +119,31 @@
     <t>C12</t>
   </si>
   <si>
-    <t>大额联行号</t>
-  </si>
-  <si>
     <t>加急标识</t>
   </si>
   <si>
     <t>URGENT_FLAG</t>
+  </si>
+  <si>
+    <t>对私标记</t>
+  </si>
+  <si>
+    <t>PERSONALFLAG</t>
+  </si>
+  <si>
+    <t>录入人</t>
+  </si>
+  <si>
+    <t>CREATOR</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>录入时间</t>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
   </si>
   <si>
     <r>
@@ -156,41 +153,23 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>加急</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Y,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不加急</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>N</t>
-    </r>
-  </si>
-  <si>
-    <t>对私标记</t>
-  </si>
-  <si>
-    <t>PERSONALFLAG</t>
+      <t>文本备用字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>TEXTVALUE1</t>
+  </si>
+  <si>
+    <t>C255</t>
   </si>
   <si>
     <r>
@@ -200,25 +179,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>默认对公；对公‘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>’、对私‘</t>
+      <t>文本备用字段</t>
     </r>
     <r>
       <rPr>
@@ -229,36 +190,9 @@
       </rPr>
       <t>2</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>’</t>
-    </r>
-  </si>
-  <si>
-    <t>录入人</t>
-  </si>
-  <si>
-    <t>CREATOR</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>录入人姓名</t>
-  </si>
-  <si>
-    <t>录入时间</t>
-  </si>
-  <si>
-    <t>CREATE_TIME</t>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>TEXTVALUE2</t>
   </si>
   <si>
     <r>
@@ -277,14 +211,11 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>TEXTVALUE1</t>
-  </si>
-  <si>
-    <t>C255</t>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>TEXTVALUE3</t>
   </si>
   <si>
     <r>
@@ -303,11 +234,11 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>TEXTVALUE2</t>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>TEXTVALUE4</t>
   </si>
   <si>
     <r>
@@ -326,11 +257,11 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>TEXTVALUE3</t>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>TEXTVALUE5</t>
   </si>
   <si>
     <r>
@@ -340,20 +271,23 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>文本备用字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>TEXTVALUE4</t>
+      <t>数字备用字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>NUMBERVALUE1</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <r>
@@ -363,20 +297,20 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>文本备用字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>TEXTVALUE5</t>
+      <t>数字备用字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>NUMBERVALUE3</t>
   </si>
   <si>
     <r>
@@ -395,14 +329,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>NUMBERVALUE1</t>
-  </si>
-  <si>
-    <t>N</t>
+      <t>3</t>
+    </r>
   </si>
   <si>
     <r>
@@ -412,20 +340,20 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>数字备用字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>NUMBERVALUE3</t>
+      <t>时间备用字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>DATEVALUE1</t>
   </si>
   <si>
     <r>
@@ -435,17 +363,20 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>数字备用字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
+      <t>时间备用字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>DATEVALUE2</t>
   </si>
   <si>
     <r>
@@ -464,11 +395,11 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>DATEVALUE1</t>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>DATEVALUE3</t>
   </si>
   <si>
     <r>
@@ -478,20 +409,35 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>时间备用字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>DATEVALUE2</t>
+      <t>加急</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Y,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不加急</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>N</t>
+    </r>
   </si>
   <si>
     <r>
@@ -501,38 +447,99 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>时间备用字段</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>DATEVALUE3</t>
+      <t>默认对公；对公‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’、对私‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’</t>
+    </r>
+  </si>
+  <si>
+    <t>录入人姓名</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
   </si>
   <si>
     <t>新建字段</t>
   </si>
   <si>
-    <t>tableName</t>
+    <t>default ''1''</t>
+  </si>
+  <si>
+    <t>default ''AA''</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,21 +560,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,13 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF65C4C"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,17 +604,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,10 +711,6 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
-    <mruColors>
-      <color rgb="FFF65C4C"/>
-      <color rgb="FFC0F4EF"/>
-    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -975,138 +980,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="18.95" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.95" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.95" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.95" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="18.95" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.95" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.95" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.95" customHeight="1">
+      <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1116,11 +1129,14 @@
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.95" customHeight="1">
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.95" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1128,13 +1144,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.95" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.95" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1142,55 +1158,58 @@
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.95" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.95" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.95" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.95" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.95" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.95" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.95" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.95" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1198,76 +1217,108 @@
         <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.95" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.95" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.95" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.95" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.95" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.95" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1">
       <formula1>"新建表,新建字段"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>